--- a/src/utils/stock_indexes_metadata.xlsx
+++ b/src/utils/stock_indexes_metadata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcunhao\Documents\dcunhaoLocal\prophet\src\drafts\dcunhao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\vol-repos\codes\itau-de7-modules-prophet\src\drafts\dcunhao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB9E011-44EF-4E02-AA82-A799EB8CBB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9166942-78C2-46F9-9782-26CBE99E2EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F723F115-5830-4A0E-9D56-D6951E50428F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F723F115-5830-4A0E-9D56-D6951E50428F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,9 +52,6 @@
     <t>BBG Ticker</t>
   </si>
   <si>
-    <t>Americas</t>
-  </si>
-  <si>
     <t>IBOV</t>
   </si>
   <si>
@@ -106,9 +103,6 @@
     <t>SPTSX Index</t>
   </si>
   <si>
-    <t>Asia and Pacific</t>
-  </si>
-  <si>
     <t>AS51</t>
   </si>
   <si>
@@ -181,9 +175,6 @@
     <t>Taiwan</t>
   </si>
   <si>
-    <t>Europe</t>
-  </si>
-  <si>
     <t>AEX</t>
   </si>
   <si>
@@ -325,9 +316,6 @@
     <t>Poland</t>
   </si>
   <si>
-    <t>MEA</t>
-  </si>
-  <si>
     <t>DFMGI</t>
   </si>
   <si>
@@ -431,6 +419,18 @@
   </si>
   <si>
     <t>SHSZ300</t>
+  </si>
+  <si>
+    <t>americas</t>
+  </si>
+  <si>
+    <t>asia_and_pacific</t>
+  </si>
+  <si>
+    <t>europe</t>
+  </si>
+  <si>
+    <t>mea</t>
   </si>
 </sst>
 </file>
@@ -785,7 +785,7 @@
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -811,97 +811,97 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8" t="str">
         <f>B8&amp;" Index"</f>
@@ -910,13 +910,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" ref="D9:D27" si="0">B9&amp;" Index"</f>
@@ -925,13 +925,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -940,13 +940,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
@@ -955,13 +955,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
@@ -970,13 +970,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -985,13 +985,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -1000,13 +1000,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -1015,13 +1015,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -1030,13 +1030,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
@@ -1045,13 +1045,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
@@ -1060,13 +1060,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
@@ -1075,13 +1075,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
@@ -1090,13 +1090,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
@@ -1105,13 +1105,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
@@ -1120,13 +1120,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" t="s">
         <v>47</v>
       </c>
-      <c r="B23" t="s">
-        <v>50</v>
-      </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
@@ -1135,13 +1135,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
@@ -1150,13 +1150,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
@@ -1165,13 +1165,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
@@ -1180,13 +1180,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
@@ -1195,13 +1195,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="B28" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C28" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" ref="D28" si="1">B28&amp;" Index"</f>
@@ -1210,13 +1210,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" ref="D29:D61" si="2">B29&amp;" Index"</f>
@@ -1225,13 +1225,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="2"/>
@@ -1240,13 +1240,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="2"/>
@@ -1255,13 +1255,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="2"/>
@@ -1270,13 +1270,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="2"/>
@@ -1285,13 +1285,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="2"/>
@@ -1300,13 +1300,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C35" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="2"/>
@@ -1315,13 +1315,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C36" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="2"/>
@@ -1330,13 +1330,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C37" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="2"/>
@@ -1345,13 +1345,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C38" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="2"/>
@@ -1360,13 +1360,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="2"/>
@@ -1375,13 +1375,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="B40" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C40" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="2"/>
@@ -1390,13 +1390,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="B41" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C41" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="2"/>
@@ -1405,13 +1405,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="B42" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C42" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="2"/>
@@ -1420,13 +1420,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="B43" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C43" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="2"/>
@@ -1435,13 +1435,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="B44" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C44" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="2"/>
@@ -1450,13 +1450,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="B45" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C45" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="2"/>
@@ -1465,13 +1465,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="B46" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C46" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="2"/>
@@ -1480,13 +1480,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C47" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="2"/>
@@ -1495,13 +1495,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C48" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="2"/>
@@ -1510,13 +1510,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="B49" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C49" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="2"/>
@@ -1525,13 +1525,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>130</v>
+      </c>
+      <c r="B50" t="s">
         <v>95</v>
       </c>
-      <c r="B50" t="s">
-        <v>99</v>
-      </c>
       <c r="C50" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="2"/>
@@ -1540,13 +1540,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="B51" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C51" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="2"/>
@@ -1555,13 +1555,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="B52" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C52" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="2"/>
@@ -1570,13 +1570,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="B53" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C53" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="2"/>
@@ -1585,13 +1585,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="B54" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C54" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="2"/>
@@ -1600,13 +1600,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="B55" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C55" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="2"/>
@@ -1615,13 +1615,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="B56" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C56" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="2"/>
@@ -1630,13 +1630,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="B57" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C57" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="2"/>
@@ -1645,13 +1645,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="B58" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C58" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="2"/>
@@ -1660,13 +1660,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="B59" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C59" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" si="2"/>
@@ -1675,13 +1675,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="B60" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C60" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" si="2"/>
@@ -1690,13 +1690,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="B61" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C61" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="2"/>
